--- a/05_Tests/Real_measurements.xlsx
+++ b/05_Tests/Real_measurements.xlsx
@@ -85,7 +85,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +110,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -132,6 +138,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,38 +471,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>47</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>43</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <f>B2-C2</f>
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>43</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <f>B2-E2</f>
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>43</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <f>B2-G2</f>
         <v>4</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>44</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <f>B2-K2</f>
         <v>3</v>
       </c>
@@ -569,38 +579,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>49</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>44</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>44</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>46</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>47</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -677,38 +687,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>30</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>57</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>53</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>53</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>53</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>53</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -785,38 +795,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>45</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>70</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>62</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>62</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>65</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="6">
         <v>63</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -893,38 +903,38 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>60</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>68</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>74</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>72</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
         <v>74</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="6">
         <v>72</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
@@ -1001,38 +1011,38 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>75</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>63</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>61</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>70</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="6">
         <v>67</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="6">
         <v>65</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
@@ -1109,38 +1119,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:12" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>90</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>61</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>52</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E20">
-        <v>64</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="6">
+        <v>64</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="6">
         <v>63</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="6">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="6">
         <v>61</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1217,38 +1227,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>105</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>63</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>50</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>61</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="6">
         <v>61</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="6">
         <v>62</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1325,38 +1335,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>120</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>69</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>51</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>66</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="6">
         <v>66</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="6">
         <v>66</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -1433,38 +1443,38 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>135</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>62</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>58</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>67</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="6">
         <v>67</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="6">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="6">
         <v>67</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="6">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
@@ -1541,38 +1551,38 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>150</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>48</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>54</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="7">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>54</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="6">
         <v>54</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="6">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="6">
         <v>61</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="6">
         <f t="shared" si="3"/>
         <v>-13</v>
       </c>
@@ -1649,38 +1659,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
         <v>165</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>39</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>37</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>37</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="6">
         <v>37</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="6">
         <v>31</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -1757,38 +1767,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
         <v>180</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>36</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>30</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <v>30</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="6">
         <v>37</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="6">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="6">
         <v>30</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>

--- a/05_Tests/Real_measurements.xlsx
+++ b/05_Tests/Real_measurements.xlsx
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +499,13 @@
         <f>B2-G2</f>
         <v>4</v>
       </c>
+      <c r="I2" s="6">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6">
+        <f>B2-I2</f>
+        <v>2</v>
+      </c>
       <c r="K2" s="6">
         <v>44</v>
       </c>
@@ -535,11 +542,18 @@
         <f t="shared" ref="H3:H38" si="2">B3-G3</f>
         <v>4</v>
       </c>
+      <c r="I3">
+        <v>44</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J38" si="3">B3-I3</f>
+        <v>3</v>
+      </c>
       <c r="K3">
         <v>44</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L38" si="3">B3-K3</f>
+        <f t="shared" ref="L3:L38" si="4">B3-K3</f>
         <v>3</v>
       </c>
     </row>
@@ -571,11 +585,18 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
+      <c r="I4">
+        <v>35</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
       <c r="K4">
         <v>32</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -607,11 +628,18 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="I5" s="6">
+        <v>43</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="K5" s="6">
         <v>47</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -643,11 +671,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I6">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="K6">
         <v>47</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -679,11 +714,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I7">
+        <v>49</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="K7">
         <v>51</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -715,11 +757,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="I8" s="6">
+        <v>53</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="K8" s="6">
         <v>53</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -751,11 +800,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="I9">
+        <v>55</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="K9">
         <v>55</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -787,11 +843,18 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="I10">
+        <v>59</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="K10">
         <v>62</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -823,11 +886,18 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="I11" s="6">
+        <v>67</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="K11" s="6">
         <v>63</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -859,11 +929,18 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="I12">
+        <v>69</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="K12">
         <v>69</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -895,11 +972,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I13">
+        <v>76</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
       <c r="K13">
         <v>74</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -931,11 +1015,18 @@
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
+      <c r="I14" s="6">
+        <v>73</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
       <c r="K14" s="6">
         <v>72</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
     </row>
@@ -967,11 +1058,18 @@
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
+      <c r="I15">
+        <v>70</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
       <c r="K15">
         <v>72</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
     </row>
@@ -1003,11 +1101,18 @@
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
+      <c r="I16">
+        <v>65</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K16">
         <v>72</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7</v>
       </c>
     </row>
@@ -1039,11 +1144,18 @@
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
+      <c r="I17" s="6">
+        <v>56</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
       <c r="K17" s="6">
         <v>65</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -1075,11 +1187,18 @@
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
+      <c r="I18">
+        <v>55</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
       <c r="K18">
         <v>65</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
     </row>
@@ -1111,11 +1230,18 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
+      <c r="I19">
+        <v>54</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
       <c r="K19">
         <v>61</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1147,11 +1273,18 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
+      <c r="I20" s="6">
+        <v>52</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="K20" s="6">
         <v>61</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1183,11 +1316,18 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="K21">
         <v>62</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
@@ -1219,11 +1359,18 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="I22">
+        <v>52</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="K22">
         <v>62</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1255,11 +1402,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I23" s="6">
+        <v>51</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="K23" s="6">
         <v>62</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1291,11 +1445,18 @@
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
+      <c r="I24">
+        <v>51</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
       <c r="K24">
         <v>66</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -1327,11 +1488,18 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="K25">
         <v>65</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1363,11 +1531,18 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="I26" s="6">
+        <v>51</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
       <c r="K26" s="6">
         <v>66</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -1399,11 +1574,18 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="I27">
+        <v>53</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="K27">
         <v>66</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -1435,11 +1617,18 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
+      <c r="I28">
+        <v>57</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="K28">
         <v>70</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -1471,11 +1660,18 @@
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
+      <c r="I29" s="6">
+        <v>60</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="K29" s="6">
         <v>67</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
     </row>
@@ -1507,11 +1703,18 @@
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
+      <c r="I30">
+        <v>63</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
       <c r="K30">
         <v>61</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
     </row>
@@ -1543,11 +1746,18 @@
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
+      <c r="I31">
+        <v>59</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
       <c r="K31">
         <v>61</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9</v>
       </c>
     </row>
@@ -1579,11 +1789,18 @@
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
+      <c r="I32" s="6">
+        <v>53</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
       <c r="K32" s="6">
         <v>61</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-13</v>
       </c>
     </row>
@@ -1615,11 +1832,18 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
+      <c r="I33">
+        <v>49</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
       <c r="K33">
         <v>46</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1651,11 +1875,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I34">
+        <v>42</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="K34">
         <v>43</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1687,11 +1918,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I35" s="6">
+        <v>37</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="K35" s="6">
         <v>31</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -1723,11 +1961,18 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I36">
+        <v>32</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="K36">
         <v>31</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -1759,11 +2004,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I37">
+        <v>32</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="K37">
         <v>30</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -1795,11 +2047,18 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="I38" s="6">
+        <v>30</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="K38" s="6">
         <v>30</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>

--- a/05_Tests/Real_measurements.xlsx
+++ b/05_Tests/Real_measurements.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Servo_position</t>
   </si>
@@ -71,18 +72,52 @@
   <si>
     <t>test2</t>
   </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t>Test 9</t>
+  </si>
+  <si>
+    <t>Test 10</t>
+  </si>
+  <si>
+    <t>Actual measurements</t>
+  </si>
+  <si>
+    <t>Sensor measurements</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="6">
@@ -117,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,11 +160,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -141,6 +228,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -157,6 +256,2245 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual measurements</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$G$17:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A415-4364-A93E-333D897C14DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensor measurements</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$G$17:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$O$2:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A415-4364-A93E-333D897C14DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="636170688"/>
+        <c:axId val="636171104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="636170688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle of measurements (degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636171104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="636171104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of measurements (cm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636170688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$G$17:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$M$2:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-7.234042553191486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.3673469387755137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.3157894736842133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.1428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8823529411764701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9047619047619095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.2622950819672152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.5079365079365097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13.913043478260873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2580645161290303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-11.282051282051277</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-11.111111111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E6D9-47E2-AAF1-E96F2BB23C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="636170688"/>
+        <c:axId val="636171104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="636170688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle of measurements (degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636171104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="636171104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average error (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636170688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>210207</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>515007</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>178018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L180"/>
+  <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +2771,7 @@
     <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +2808,23 @@
       <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -513,8 +2866,23 @@
         <f>B2-K2</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="6">
+        <v>44</v>
+      </c>
+      <c r="O2" s="6">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>44</v>
+      </c>
+      <c r="S2" s="6">
+        <v>44</v>
+      </c>
+      <c r="U2" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -556,8 +2924,23 @@
         <f t="shared" ref="L3:L38" si="4">B3-K3</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>44</v>
+      </c>
+      <c r="O3">
+        <v>44</v>
+      </c>
+      <c r="Q3">
+        <v>44</v>
+      </c>
+      <c r="S3">
+        <v>44</v>
+      </c>
+      <c r="U3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -599,8 +2982,23 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>32</v>
+      </c>
+      <c r="Q4">
+        <v>32</v>
+      </c>
+      <c r="S4">
+        <v>32</v>
+      </c>
+      <c r="U4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>15</v>
       </c>
@@ -642,8 +3040,23 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="6">
+        <v>47</v>
+      </c>
+      <c r="O5" s="6">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>47</v>
+      </c>
+      <c r="S5" s="6">
+        <v>47</v>
+      </c>
+      <c r="U5" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -685,8 +3098,23 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>47</v>
+      </c>
+      <c r="O6">
+        <v>47</v>
+      </c>
+      <c r="Q6">
+        <v>47</v>
+      </c>
+      <c r="S6">
+        <v>47</v>
+      </c>
+      <c r="U6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -728,8 +3156,23 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>51</v>
+      </c>
+      <c r="O7">
+        <v>51</v>
+      </c>
+      <c r="Q7">
+        <v>51</v>
+      </c>
+      <c r="S7">
+        <v>51</v>
+      </c>
+      <c r="U7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>30</v>
       </c>
@@ -771,8 +3214,23 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="6">
+        <v>53</v>
+      </c>
+      <c r="O8" s="6">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>53</v>
+      </c>
+      <c r="S8" s="6">
+        <v>53</v>
+      </c>
+      <c r="U8" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>35</v>
       </c>
@@ -814,8 +3272,23 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>55</v>
+      </c>
+      <c r="O9">
+        <v>55</v>
+      </c>
+      <c r="Q9">
+        <v>55</v>
+      </c>
+      <c r="S9">
+        <v>55</v>
+      </c>
+      <c r="U9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40</v>
       </c>
@@ -857,8 +3330,23 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>62</v>
+      </c>
+      <c r="O10">
+        <v>62</v>
+      </c>
+      <c r="Q10">
+        <v>62</v>
+      </c>
+      <c r="S10">
+        <v>62</v>
+      </c>
+      <c r="U10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45</v>
       </c>
@@ -900,8 +3388,23 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="6">
+        <v>63</v>
+      </c>
+      <c r="O11" s="6">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>63</v>
+      </c>
+      <c r="S11" s="6">
+        <v>63</v>
+      </c>
+      <c r="U11" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -943,8 +3446,23 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>69</v>
+      </c>
+      <c r="O12">
+        <v>69</v>
+      </c>
+      <c r="Q12">
+        <v>69</v>
+      </c>
+      <c r="S12">
+        <v>69</v>
+      </c>
+      <c r="U12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>55</v>
       </c>
@@ -986,8 +3504,23 @@
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>74</v>
+      </c>
+      <c r="O13">
+        <v>74</v>
+      </c>
+      <c r="Q13">
+        <v>74</v>
+      </c>
+      <c r="S13">
+        <v>74</v>
+      </c>
+      <c r="U13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>60</v>
       </c>
@@ -1029,8 +3562,23 @@
         <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="6">
+        <v>72</v>
+      </c>
+      <c r="O14" s="6">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>72</v>
+      </c>
+      <c r="S14" s="6">
+        <v>72</v>
+      </c>
+      <c r="U14" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>65</v>
       </c>
@@ -1072,8 +3620,23 @@
         <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>72</v>
+      </c>
+      <c r="O15">
+        <v>72</v>
+      </c>
+      <c r="Q15">
+        <v>72</v>
+      </c>
+      <c r="S15">
+        <v>72</v>
+      </c>
+      <c r="U15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>70</v>
       </c>
@@ -1115,8 +3678,23 @@
         <f t="shared" si="4"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>72</v>
+      </c>
+      <c r="O16">
+        <v>72</v>
+      </c>
+      <c r="Q16">
+        <v>72</v>
+      </c>
+      <c r="S16">
+        <v>72</v>
+      </c>
+      <c r="U16">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>75</v>
       </c>
@@ -1158,8 +3736,23 @@
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="6">
+        <v>65</v>
+      </c>
+      <c r="O17" s="6">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>65</v>
+      </c>
+      <c r="S17" s="6">
+        <v>65</v>
+      </c>
+      <c r="U17" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>80</v>
       </c>
@@ -1201,8 +3794,23 @@
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>65</v>
+      </c>
+      <c r="O18">
+        <v>65</v>
+      </c>
+      <c r="Q18">
+        <v>65</v>
+      </c>
+      <c r="S18">
+        <v>65</v>
+      </c>
+      <c r="U18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>85</v>
       </c>
@@ -1244,8 +3852,23 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>61</v>
+      </c>
+      <c r="O19">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <v>61</v>
+      </c>
+      <c r="S19">
+        <v>61</v>
+      </c>
+      <c r="U19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>90</v>
       </c>
@@ -1287,8 +3910,23 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="6">
+        <v>61</v>
+      </c>
+      <c r="O20" s="6">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>61</v>
+      </c>
+      <c r="S20" s="6">
+        <v>61</v>
+      </c>
+      <c r="U20" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>95</v>
       </c>
@@ -1330,8 +3968,23 @@
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>62</v>
+      </c>
+      <c r="O21">
+        <v>62</v>
+      </c>
+      <c r="Q21">
+        <v>62</v>
+      </c>
+      <c r="S21">
+        <v>62</v>
+      </c>
+      <c r="U21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100</v>
       </c>
@@ -1373,8 +4026,23 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>62</v>
+      </c>
+      <c r="O22">
+        <v>62</v>
+      </c>
+      <c r="Q22">
+        <v>62</v>
+      </c>
+      <c r="S22">
+        <v>62</v>
+      </c>
+      <c r="U22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>105</v>
       </c>
@@ -1416,8 +4084,23 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="6">
+        <v>62</v>
+      </c>
+      <c r="O23" s="6">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>62</v>
+      </c>
+      <c r="S23" s="6">
+        <v>62</v>
+      </c>
+      <c r="U23" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>110</v>
       </c>
@@ -1459,8 +4142,23 @@
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>66</v>
+      </c>
+      <c r="O24">
+        <v>66</v>
+      </c>
+      <c r="Q24">
+        <v>66</v>
+      </c>
+      <c r="S24">
+        <v>66</v>
+      </c>
+      <c r="U24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>115</v>
       </c>
@@ -1502,8 +4200,23 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>65</v>
+      </c>
+      <c r="O25">
+        <v>65</v>
+      </c>
+      <c r="Q25">
+        <v>65</v>
+      </c>
+      <c r="S25">
+        <v>65</v>
+      </c>
+      <c r="U25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>120</v>
       </c>
@@ -1545,8 +4258,23 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="6">
+        <v>66</v>
+      </c>
+      <c r="O26" s="6">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>66</v>
+      </c>
+      <c r="S26" s="6">
+        <v>66</v>
+      </c>
+      <c r="U26" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>125</v>
       </c>
@@ -1588,8 +4316,23 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>66</v>
+      </c>
+      <c r="O27">
+        <v>66</v>
+      </c>
+      <c r="Q27">
+        <v>66</v>
+      </c>
+      <c r="S27">
+        <v>66</v>
+      </c>
+      <c r="U27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>130</v>
       </c>
@@ -1631,8 +4374,23 @@
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>70</v>
+      </c>
+      <c r="O28">
+        <v>70</v>
+      </c>
+      <c r="Q28">
+        <v>70</v>
+      </c>
+      <c r="S28">
+        <v>70</v>
+      </c>
+      <c r="U28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>135</v>
       </c>
@@ -1674,8 +4432,23 @@
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="6">
+        <v>67</v>
+      </c>
+      <c r="O29" s="6">
+        <v>67</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>67</v>
+      </c>
+      <c r="S29" s="6">
+        <v>67</v>
+      </c>
+      <c r="U29" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>140</v>
       </c>
@@ -1717,8 +4490,23 @@
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>61</v>
+      </c>
+      <c r="O30">
+        <v>61</v>
+      </c>
+      <c r="Q30">
+        <v>61</v>
+      </c>
+      <c r="S30">
+        <v>61</v>
+      </c>
+      <c r="U30">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>145</v>
       </c>
@@ -1760,8 +4548,23 @@
         <f t="shared" si="4"/>
         <v>-9</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>61</v>
+      </c>
+      <c r="O31">
+        <v>61</v>
+      </c>
+      <c r="Q31">
+        <v>61</v>
+      </c>
+      <c r="S31">
+        <v>61</v>
+      </c>
+      <c r="U31">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>150</v>
       </c>
@@ -1803,8 +4606,23 @@
         <f t="shared" si="4"/>
         <v>-13</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="6">
+        <v>61</v>
+      </c>
+      <c r="O32" s="6">
+        <v>61</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>61</v>
+      </c>
+      <c r="S32" s="6">
+        <v>61</v>
+      </c>
+      <c r="U32" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>155</v>
       </c>
@@ -1846,8 +4664,23 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>46</v>
+      </c>
+      <c r="O33">
+        <v>46</v>
+      </c>
+      <c r="Q33">
+        <v>46</v>
+      </c>
+      <c r="S33">
+        <v>46</v>
+      </c>
+      <c r="U33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>160</v>
       </c>
@@ -1889,8 +4722,23 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>43</v>
+      </c>
+      <c r="O34">
+        <v>43</v>
+      </c>
+      <c r="Q34">
+        <v>43</v>
+      </c>
+      <c r="S34">
+        <v>43</v>
+      </c>
+      <c r="U34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>165</v>
       </c>
@@ -1932,8 +4780,23 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="6">
+        <v>31</v>
+      </c>
+      <c r="O35" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>31</v>
+      </c>
+      <c r="S35" s="6">
+        <v>31</v>
+      </c>
+      <c r="U35" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>170</v>
       </c>
@@ -1975,8 +4838,23 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>31</v>
+      </c>
+      <c r="O36">
+        <v>31</v>
+      </c>
+      <c r="Q36">
+        <v>31</v>
+      </c>
+      <c r="S36">
+        <v>31</v>
+      </c>
+      <c r="U36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>175</v>
       </c>
@@ -2018,8 +4896,23 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="O37">
+        <v>30</v>
+      </c>
+      <c r="Q37">
+        <v>30</v>
+      </c>
+      <c r="S37">
+        <v>30</v>
+      </c>
+      <c r="U37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>180</v>
       </c>
@@ -2061,8 +4954,23 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="6">
+        <v>30</v>
+      </c>
+      <c r="O38" s="6">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>30</v>
+      </c>
+      <c r="S38" s="6">
+        <v>30</v>
+      </c>
+      <c r="U38" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -2854,7 +5762,7 @@
   <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4851,4 +7759,767 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43</v>
+      </c>
+      <c r="C2" s="9">
+        <v>43</v>
+      </c>
+      <c r="D2" s="9">
+        <v>45</v>
+      </c>
+      <c r="E2" s="9">
+        <v>44</v>
+      </c>
+      <c r="F2" s="9">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9">
+        <v>47</v>
+      </c>
+      <c r="H2" s="9">
+        <v>42</v>
+      </c>
+      <c r="I2" s="9">
+        <v>43</v>
+      </c>
+      <c r="J2" s="9">
+        <v>44</v>
+      </c>
+      <c r="K2">
+        <f xml:space="preserve"> (A2+B2+C2+D2+E2+F2+G2+H2+I2+J2)/10</f>
+        <v>43.6</v>
+      </c>
+      <c r="L2">
+        <f>(K2-O2)/O2</f>
+        <v>-7.2340425531914859E-2</v>
+      </c>
+      <c r="M2">
+        <f>L2*100</f>
+        <v>-7.234042553191486</v>
+      </c>
+      <c r="N2">
+        <f>K2-O2</f>
+        <v>-3.3999999999999986</v>
+      </c>
+      <c r="O2" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>44</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11">
+        <v>46</v>
+      </c>
+      <c r="D3" s="11">
+        <v>43</v>
+      </c>
+      <c r="E3" s="11">
+        <v>47</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45</v>
+      </c>
+      <c r="G3" s="11">
+        <v>47</v>
+      </c>
+      <c r="H3" s="11">
+        <v>45</v>
+      </c>
+      <c r="I3" s="11">
+        <v>43</v>
+      </c>
+      <c r="J3" s="11">
+        <v>45</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K14" si="0" xml:space="preserve"> (A3+B3+C3+D3+E3+F3+G3+H3+I3+J3)/10</f>
+        <v>44.9</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L14" si="1">(K3-O3)/O3</f>
+        <v>-8.3673469387755134E-2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M14" si="2">L3*100</f>
+        <v>-8.3673469387755137</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N14" si="3">K3-O3</f>
+        <v>-4.1000000000000014</v>
+      </c>
+      <c r="O3" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>57</v>
+      </c>
+      <c r="B4" s="11">
+        <v>53</v>
+      </c>
+      <c r="C4" s="11">
+        <v>53</v>
+      </c>
+      <c r="D4" s="11">
+        <v>53</v>
+      </c>
+      <c r="E4" s="11">
+        <v>53</v>
+      </c>
+      <c r="F4" s="11">
+        <v>56</v>
+      </c>
+      <c r="G4" s="11">
+        <v>55</v>
+      </c>
+      <c r="H4" s="11">
+        <v>52</v>
+      </c>
+      <c r="I4" s="11">
+        <v>50</v>
+      </c>
+      <c r="J4" s="11">
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>53.4</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>-6.3157894736842135E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>-6.3157894736842133</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>-3.6000000000000014</v>
+      </c>
+      <c r="O4" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>62</v>
+      </c>
+      <c r="B5" s="11">
+        <v>62</v>
+      </c>
+      <c r="C5" s="11">
+        <v>65</v>
+      </c>
+      <c r="D5" s="11">
+        <v>67</v>
+      </c>
+      <c r="E5" s="11">
+        <v>63</v>
+      </c>
+      <c r="F5" s="11">
+        <v>65</v>
+      </c>
+      <c r="G5" s="11">
+        <v>68</v>
+      </c>
+      <c r="H5" s="11">
+        <v>63</v>
+      </c>
+      <c r="I5" s="11">
+        <v>61</v>
+      </c>
+      <c r="J5" s="11">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>63.6</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>-9.1428571428571415E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>-9.1428571428571423</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>-6.3999999999999986</v>
+      </c>
+      <c r="O5" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>74</v>
+      </c>
+      <c r="B6" s="11">
+        <v>72</v>
+      </c>
+      <c r="C6" s="11">
+        <v>74</v>
+      </c>
+      <c r="D6" s="11">
+        <v>73</v>
+      </c>
+      <c r="E6" s="11">
+        <v>72</v>
+      </c>
+      <c r="F6" s="11">
+        <v>74</v>
+      </c>
+      <c r="G6" s="11">
+        <v>69</v>
+      </c>
+      <c r="H6" s="11">
+        <v>74</v>
+      </c>
+      <c r="I6" s="11">
+        <v>70</v>
+      </c>
+      <c r="J6" s="11">
+        <v>68</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O6" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>61</v>
+      </c>
+      <c r="B7" s="11">
+        <v>70</v>
+      </c>
+      <c r="C7" s="11">
+        <v>67</v>
+      </c>
+      <c r="D7" s="11">
+        <v>56</v>
+      </c>
+      <c r="E7" s="11">
+        <v>65</v>
+      </c>
+      <c r="F7" s="11">
+        <v>63</v>
+      </c>
+      <c r="G7" s="11">
+        <v>65</v>
+      </c>
+      <c r="H7" s="11">
+        <v>70</v>
+      </c>
+      <c r="I7" s="11">
+        <v>62</v>
+      </c>
+      <c r="J7" s="11">
+        <v>63</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>64.2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1.9047619047619094E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>1.9047619047619095</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="O7" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>52</v>
+      </c>
+      <c r="B8" s="11">
+        <v>64</v>
+      </c>
+      <c r="C8" s="11">
+        <v>63</v>
+      </c>
+      <c r="D8" s="11">
+        <v>52</v>
+      </c>
+      <c r="E8" s="11">
+        <v>61</v>
+      </c>
+      <c r="F8" s="11">
+        <v>59</v>
+      </c>
+      <c r="G8" s="11">
+        <v>61</v>
+      </c>
+      <c r="H8" s="11">
+        <v>52</v>
+      </c>
+      <c r="I8" s="11">
+        <v>59</v>
+      </c>
+      <c r="J8" s="11">
+        <v>61</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>58.4</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>-4.2622950819672156E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>-4.2622950819672152</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>-2.6000000000000014</v>
+      </c>
+      <c r="O8" s="10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>50</v>
+      </c>
+      <c r="B9" s="11">
+        <v>61</v>
+      </c>
+      <c r="C9" s="11">
+        <v>61</v>
+      </c>
+      <c r="D9" s="11">
+        <v>51</v>
+      </c>
+      <c r="E9" s="11">
+        <v>62</v>
+      </c>
+      <c r="F9" s="11">
+        <v>59</v>
+      </c>
+      <c r="G9" s="11">
+        <v>60</v>
+      </c>
+      <c r="H9" s="11">
+        <v>61</v>
+      </c>
+      <c r="I9" s="11">
+        <v>59</v>
+      </c>
+      <c r="J9" s="11">
+        <v>65</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>58.9</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>-6.5079365079365098E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>-6.5079365079365097</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>-4.1000000000000014</v>
+      </c>
+      <c r="O9" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>51</v>
+      </c>
+      <c r="B10" s="11">
+        <v>66</v>
+      </c>
+      <c r="C10" s="11">
+        <v>66</v>
+      </c>
+      <c r="D10" s="11">
+        <v>51</v>
+      </c>
+      <c r="E10" s="11">
+        <v>66</v>
+      </c>
+      <c r="F10" s="11">
+        <v>67</v>
+      </c>
+      <c r="G10" s="11">
+        <v>65</v>
+      </c>
+      <c r="H10" s="11">
+        <v>30</v>
+      </c>
+      <c r="I10" s="11">
+        <v>66</v>
+      </c>
+      <c r="J10" s="11">
+        <v>66</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>59.4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>-0.13913043478260873</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>-13.913043478260873</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>-9.6000000000000014</v>
+      </c>
+      <c r="O10" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>59</v>
+      </c>
+      <c r="B11" s="11">
+        <v>67</v>
+      </c>
+      <c r="C11" s="11">
+        <v>67</v>
+      </c>
+      <c r="D11" s="11">
+        <v>60</v>
+      </c>
+      <c r="E11" s="11">
+        <v>67</v>
+      </c>
+      <c r="F11" s="11">
+        <v>64</v>
+      </c>
+      <c r="G11" s="11">
+        <v>60</v>
+      </c>
+      <c r="H11" s="11">
+        <v>58</v>
+      </c>
+      <c r="I11" s="11">
+        <v>65</v>
+      </c>
+      <c r="J11" s="11">
+        <v>67</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>63.4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>2.25806451612903E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>2.2580645161290303</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="O11" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>54</v>
+      </c>
+      <c r="B12" s="11">
+        <v>54</v>
+      </c>
+      <c r="C12" s="11">
+        <v>54</v>
+      </c>
+      <c r="D12" s="11">
+        <v>59</v>
+      </c>
+      <c r="E12" s="11">
+        <v>61</v>
+      </c>
+      <c r="F12" s="11">
+        <v>59</v>
+      </c>
+      <c r="G12" s="11">
+        <v>57</v>
+      </c>
+      <c r="H12" s="11">
+        <v>50</v>
+      </c>
+      <c r="I12" s="11">
+        <v>50</v>
+      </c>
+      <c r="J12" s="11">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O12" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11">
+        <v>37</v>
+      </c>
+      <c r="D13" s="11">
+        <v>37</v>
+      </c>
+      <c r="E13" s="11">
+        <v>30</v>
+      </c>
+      <c r="F13" s="11">
+        <v>30</v>
+      </c>
+      <c r="G13" s="11">
+        <v>36</v>
+      </c>
+      <c r="H13" s="11">
+        <v>35</v>
+      </c>
+      <c r="I13" s="11">
+        <v>45</v>
+      </c>
+      <c r="J13" s="11">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>34.6</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>-0.11282051282051278</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>-11.282051282051277</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>-4.3999999999999986</v>
+      </c>
+      <c r="O13" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11">
+        <v>30</v>
+      </c>
+      <c r="C14" s="11">
+        <v>37</v>
+      </c>
+      <c r="D14" s="11">
+        <v>30</v>
+      </c>
+      <c r="E14" s="11">
+        <v>30</v>
+      </c>
+      <c r="F14" s="11">
+        <v>31</v>
+      </c>
+      <c r="G14" s="11">
+        <v>31</v>
+      </c>
+      <c r="H14" s="11">
+        <v>31</v>
+      </c>
+      <c r="I14" s="11">
+        <v>38</v>
+      </c>
+      <c r="J14" s="11">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>-0.1111111111111111</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>-11.111111111111111</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="O14" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="10">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="10">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>